--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792391.701174279</v>
+        <v>1790139.621463071</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629549</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>157.7277520215811</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>86.04141908549666</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.6444072353622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>319.3908819388046</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>399.9571464892285</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,10 +950,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.52676208877527</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>250.926899213577</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>157.7822070347172</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826039</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>38.37250637580779</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.02868377804516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763394</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>80.08971311158554</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922704</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042369</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612319</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>91.89996056624311</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.511541534052</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093435</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33.84547402811312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105699</v>
       </c>
     </row>
     <row r="35">
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362948</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>185.4706806359738</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>106.2078024559162</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116518</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176106</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>958.147330569356</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>572.3590779711117</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>565.4135772219082</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.97538618064</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.7005868594143</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.676735765777</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.676735765777</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1125.349051689654</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199009</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1642.972675199009</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>817.0352339990384</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>817.0352339990384</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>810.0897332498349</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.572515263131</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1751.913851851648</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1530.147236421175</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.044369546818</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3598813409312</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1808.800296392465</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1439.837779452053</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1081.572080845303</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
         <v>828.1105664881544</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392465</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,31 +5051,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792909</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433898</v>
+        <v>1552.432392194326</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673185</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159287</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556945</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>565.7099969556945</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468521</v>
+        <v>695.5020655703128</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406141</v>
+        <v>526.5658826424059</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282784</v>
+        <v>526.5658826424059</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>378.6527890600128</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>231.7628415621024</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>231.7628415621024</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238958</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583156</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377269</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340308</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442291</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987608</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,31 +5765,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647231</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368163</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>481.4479471244805</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420874</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>186.644906044177</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>186.644906044177</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.10824923516</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579358</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373471</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.93136433651</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438493</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949629</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>924.8344286397182</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684979</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,34 +6710,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171287</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892218</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588916</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690899</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473685</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1648.813543116455</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1359.396373079494</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431386</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.5559695740496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228843</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.33133491134571</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243580017</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.8807364711651</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580152</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>48.39475227998078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112517185</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462256</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40.23897475306337</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711604</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7699989900992</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415249</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>15.00954930701842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294937</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>31.93476969131444</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880491.4179320151</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583916</v>
@@ -26320,40 +26320,40 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
@@ -26433,16 +26433,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184272</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26454,7 +26454,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975269.3345137883</v>
+        <v>-975269.3345137885</v>
       </c>
       <c r="C6" t="n">
-        <v>353475.4112138044</v>
+        <v>353475.411213804</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.4112138043</v>
+        <v>353475.4112138042</v>
       </c>
       <c r="E6" t="n">
-        <v>104682.1550476488</v>
+        <v>104647.4171222133</v>
       </c>
       <c r="F6" t="n">
-        <v>430094.6168550043</v>
+        <v>430059.8789295688</v>
       </c>
       <c r="G6" t="n">
-        <v>430094.6168550046</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="H6" t="n">
-        <v>430094.6168550041</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.6168550045</v>
+        <v>430059.8789295685</v>
       </c>
       <c r="J6" t="n">
-        <v>212563.4144577264</v>
+        <v>212528.6765322909</v>
       </c>
       <c r="K6" t="n">
-        <v>430094.6168550038</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="L6" t="n">
-        <v>430094.6168550042</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="M6" t="n">
-        <v>345039.5889194925</v>
+        <v>345004.8509940567</v>
       </c>
       <c r="N6" t="n">
-        <v>430094.616855004</v>
+        <v>430059.8789295688</v>
       </c>
       <c r="O6" t="n">
-        <v>430094.6168550043</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="P6" t="n">
-        <v>430094.6168550044</v>
+        <v>430059.8789295683</v>
       </c>
     </row>
   </sheetData>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577281</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>253.1939736318723</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>200.1704191201162</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.9402461167326</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>35.29215968187839</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.96457916422492</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747053</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>131.0034708586848</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.4296311708957</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.6368266683306</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-8.264734206300728e-14</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29961,7 +29961,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>362.5355639238086</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>518.0009690113193</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.16345607195</v>
       </c>
       <c r="N27" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817553</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>137.7376326175082</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>708.9385480032147</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>386.659256927986</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499317</v>
       </c>
       <c r="N27" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010436</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367747</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>528.6559836563374</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>6.39592053417488</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>566.8045140811964</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
